--- a/proposal/syspop/figures/syscall-popularity.xlsx
+++ b/proposal/syspop/figures/syscall-popularity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="syscall-popularity.csv" sheetId="1" r:id="rId1"/>
@@ -2189,11 +2189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="400"/>
-        <c:axId val="2128446512"/>
-        <c:axId val="2147167760"/>
+        <c:axId val="-2132926336"/>
+        <c:axId val="2144627776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128446512"/>
+        <c:axId val="-2132926336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2147167760"/>
+        <c:crossAx val="2144627776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2147167760"/>
+        <c:axId val="2144627776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2236,7 +2236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128446512"/>
+        <c:crossAx val="-2132926336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.02"/>
@@ -2281,10 +2281,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.126407524521068"/>
-          <c:y val="0.2904257620455"/>
-          <c:w val="0.850968078912432"/>
-          <c:h val="0.543865400386462"/>
+          <c:x val="0.111376472305249"/>
+          <c:y val="0.254858997964014"/>
+          <c:w val="0.865999131128251"/>
+          <c:h val="0.583383924395638"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3214,11 +3214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142531040"/>
-        <c:axId val="2145173024"/>
+        <c:axId val="2097829296"/>
+        <c:axId val="2097685600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142531040"/>
+        <c:axId val="2097829296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,7 +3292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145173024"/>
+        <c:crossAx val="2097685600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3302,7 +3302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145173024"/>
+        <c:axId val="2097685600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -3387,7 +3387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142531040"/>
+        <c:crossAx val="2097829296"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3452,15 +3452,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400519</xdr:colOff>
+      <xdr:colOff>159219</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3488,11 +3488,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.41642</cdr:x>
-      <cdr:y>0.34044</cdr:y>
+      <cdr:x>0.40533</cdr:x>
+      <cdr:y>0.30627</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.41642</cdr:x>
+      <cdr:x>0.40609</cdr:x>
       <cdr:y>0.83954</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -3501,9 +3501,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="5629420" y="2188102"/>
-          <a:ext cx="0" cy="3207893"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="5479581" y="1968500"/>
+          <a:ext cx="10168" cy="3427522"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3536,12 +3536,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.39565</cdr:x>
-      <cdr:y>0.28115</cdr:y>
+      <cdr:x>0.38344</cdr:x>
+      <cdr:y>0.24756</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.48338</cdr:x>
-      <cdr:y>0.38195</cdr:y>
+      <cdr:x>0.47117</cdr:x>
+      <cdr:y>0.34836</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3550,8 +3550,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3908527" y="1756242"/>
-          <a:ext cx="866655" cy="629671"/>
+          <a:off x="5183566" y="1591151"/>
+          <a:ext cx="1185994" cy="647877"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3580,12 +3580,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86527</cdr:x>
-      <cdr:y>0.34641</cdr:y>
+      <cdr:x>0.8619</cdr:x>
+      <cdr:y>0.30627</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86568</cdr:x>
-      <cdr:y>0.82352</cdr:y>
+      <cdr:x>0.86339</cdr:x>
+      <cdr:y>0.83538</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3593,9 +3593,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="11697338" y="2226485"/>
-          <a:ext cx="5543" cy="3066555"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="11651781" y="1968500"/>
+          <a:ext cx="20128" cy="3400756"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3628,12 +3628,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.59887</cdr:x>
-      <cdr:y>0.3266</cdr:y>
+      <cdr:x>0.59604</cdr:x>
+      <cdr:y>0.30627</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.59887</cdr:x>
-      <cdr:y>0.82368</cdr:y>
+      <cdr:x>0.59605</cdr:x>
+      <cdr:y>0.83554</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3641,9 +3641,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="8095865" y="2099202"/>
-          <a:ext cx="0" cy="3194909"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="8057681" y="1968500"/>
+          <a:ext cx="151" cy="3401784"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3677,11 +3677,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.57392</cdr:x>
-      <cdr:y>0.28091</cdr:y>
+      <cdr:y>0.2493</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.64813</cdr:x>
-      <cdr:y>0.39388</cdr:y>
+      <cdr:y>0.36227</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3690,8 +3690,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5669580" y="1754750"/>
-          <a:ext cx="733095" cy="705693"/>
+          <a:off x="7758641" y="1602308"/>
+          <a:ext cx="1003222" cy="726098"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3785,11 +3785,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.83967</cdr:x>
-      <cdr:y>0.27945</cdr:y>
+      <cdr:y>0.24784</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.92192</cdr:x>
-      <cdr:y>0.39544</cdr:y>
+      <cdr:y>0.36383</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3798,7 +3798,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="11351185" y="1796112"/>
+          <a:off x="11351231" y="1592924"/>
           <a:ext cx="1111911" cy="745509"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -3892,11 +3892,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.06787</cdr:x>
+      <cdr:x>0.0519</cdr:x>
       <cdr:y>0.74846</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.15133</cdr:x>
+      <cdr:x>0.13536</cdr:x>
       <cdr:y>0.82358</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -3906,7 +3906,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="917536" y="4810605"/>
+          <a:off x="701613" y="4810617"/>
           <a:ext cx="1128269" cy="482823"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -4000,12 +4000,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.12632</cdr:x>
-      <cdr:y>0.77712</cdr:y>
+      <cdr:x>0.11317</cdr:x>
+      <cdr:y>0.77514</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60352</cdr:x>
-      <cdr:y>0.78049</cdr:y>
+      <cdr:x>0.59037</cdr:x>
+      <cdr:y>0.77851</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -4014,8 +4014,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="1707681" y="4994853"/>
-          <a:ext cx="6451113" cy="21646"/>
+          <a:off x="1529880" y="4982125"/>
+          <a:ext cx="6451114" cy="21661"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4048,12 +4048,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07633</cdr:x>
-      <cdr:y>0</cdr:y>
+      <cdr:x>0.05566</cdr:x>
+      <cdr:y>0.00198</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37245</cdr:x>
-      <cdr:y>0.31522</cdr:y>
+      <cdr:x>0.35178</cdr:x>
+      <cdr:y>0.25199</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4062,8 +4062,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1031898" y="0"/>
-          <a:ext cx="4003183" cy="2026031"/>
+          <a:off x="752481" y="12699"/>
+          <a:ext cx="4003152" cy="1606932"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="downArrowCallout">
           <a:avLst>
@@ -4176,28 +4176,7 @@
               <a:ea typeface="Courier" charset="0"/>
               <a:cs typeface="Courier" charset="0"/>
             </a:rPr>
-            <a:t>mmap,clone,read,exit,getpid,socket,writev,dup,symlink,</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Courier" charset="0"/>
-              <a:ea typeface="Courier" charset="0"/>
-              <a:cs typeface="Courier" charset="0"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Courier" charset="0"/>
-              <a:ea typeface="Courier" charset="0"/>
-              <a:cs typeface="Courier" charset="0"/>
-            </a:rPr>
-            <a:t>ioctl </a:t>
+            <a:t>mmap,clone,read,exit,getpid,socket,writev,dup,symlink</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:solidFill>
@@ -4213,12 +4192,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.37715</cdr:x>
-      <cdr:y>0</cdr:y>
+      <cdr:x>0.35836</cdr:x>
+      <cdr:y>0.00395</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.58946</cdr:x>
-      <cdr:y>0.31522</cdr:y>
+      <cdr:x>0.57067</cdr:x>
+      <cdr:y>0.25594</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4227,8 +4206,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5098581" y="0"/>
-          <a:ext cx="2870199" cy="2026031"/>
+          <a:off x="4844571" y="25399"/>
+          <a:ext cx="2870151" cy="1619632"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="downArrowCallout">
           <a:avLst>
@@ -4469,12 +4448,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.59322</cdr:x>
-      <cdr:y>0</cdr:y>
+      <cdr:x>0.57631</cdr:x>
+      <cdr:y>0.00198</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85721</cdr:x>
-      <cdr:y>0.31522</cdr:y>
+      <cdr:x>0.8403</cdr:x>
+      <cdr:y>0.25594</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4483,8 +4462,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8019581" y="0"/>
-          <a:ext cx="3568700" cy="2026031"/>
+          <a:off x="7790952" y="12699"/>
+          <a:ext cx="3568797" cy="1632332"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="downArrowCallout">
           <a:avLst>
@@ -4736,12 +4715,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86096</cdr:x>
+      <cdr:x>0.84593</cdr:x>
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.31522</cdr:y>
+      <cdr:y>0.25397</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4750,8 +4729,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="11639081" y="0"/>
-          <a:ext cx="1879600" cy="2026031"/>
+          <a:off x="11435882" y="0"/>
+          <a:ext cx="2082799" cy="1632332"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="downArrowCallout">
           <a:avLst>
@@ -4891,7 +4870,7 @@
               <a:ea typeface="Arial" charset="0"/>
               <a:cs typeface="Arial" charset="0"/>
             </a:rPr>
-            <a:t>Zero importance</a:t>
+            <a:t>0% importance</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2400" baseline="0">
